--- a/data/Umfragen_Sep21-2013.xlsx
+++ b/data/Umfragen_Sep21-2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="In_UmfragenSep21-2013" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="80">
   <si>
     <t>Institut</t>
   </si>
@@ -236,12 +236,33 @@
   <si>
     <t>?</t>
   </si>
+  <si>
+    <t>Min 99%</t>
+  </si>
+  <si>
+    <t>Min 95%</t>
+  </si>
+  <si>
+    <t>Min 68%</t>
+  </si>
+  <si>
+    <t>Max 68%</t>
+  </si>
+  <si>
+    <t>Max 95%</t>
+  </si>
+  <si>
+    <t>Max 99%</t>
+  </si>
+  <si>
+    <t>Adj. Res</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +290,27 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -312,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -336,6 +378,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,7 +413,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -436,11 +483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49320320"/>
-        <c:axId val="49321856"/>
+        <c:axId val="68084864"/>
+        <c:axId val="68086400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49320320"/>
+        <c:axId val="68084864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,12 +496,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49321856"/>
+        <c:crossAx val="68086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49321856"/>
+        <c:axId val="68086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.41000000000000003"/>
@@ -466,7 +513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49320320"/>
+        <c:crossAx val="68084864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -498,7 +545,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -569,11 +615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49333760"/>
-        <c:axId val="49335296"/>
+        <c:axId val="69401216"/>
+        <c:axId val="70989312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49333760"/>
+        <c:axId val="69401216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,12 +628,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49335296"/>
+        <c:crossAx val="70989312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49335296"/>
+        <c:axId val="70989312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.41000000000000003"/>
@@ -599,7 +645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49333760"/>
+        <c:crossAx val="69401216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -631,7 +677,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -702,11 +747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50543232"/>
-        <c:axId val="50553216"/>
+        <c:axId val="76229248"/>
+        <c:axId val="49341184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50543232"/>
+        <c:axId val="76229248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +760,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50553216"/>
+        <c:crossAx val="49341184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50553216"/>
+        <c:axId val="49341184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.41000000000000003"/>
@@ -732,7 +777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50543232"/>
+        <c:crossAx val="76229248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -764,7 +809,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -835,11 +879,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50728960"/>
-        <c:axId val="50730496"/>
+        <c:axId val="50536832"/>
+        <c:axId val="50538368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50728960"/>
+        <c:axId val="50536832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,12 +892,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50730496"/>
+        <c:crossAx val="50538368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50730496"/>
+        <c:axId val="50538368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.41000000000000003"/>
@@ -865,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50728960"/>
+        <c:crossAx val="50536832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -897,7 +941,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -968,11 +1011,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50750592"/>
-        <c:axId val="50752128"/>
+        <c:axId val="50566656"/>
+        <c:axId val="50568192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50750592"/>
+        <c:axId val="50566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,12 +1024,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50752128"/>
+        <c:crossAx val="50568192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50752128"/>
+        <c:axId val="50568192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.15000000000000002"/>
@@ -998,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50750592"/>
+        <c:crossAx val="50566656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1030,7 +1073,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1095,11 +1137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52529792"/>
-        <c:axId val="52535680"/>
+        <c:axId val="50748416"/>
+        <c:axId val="50750208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52529792"/>
+        <c:axId val="50748416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,12 +1150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52535680"/>
+        <c:crossAx val="50750208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52535680"/>
+        <c:axId val="50750208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.15000000000000002"/>
@@ -1125,7 +1167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52529792"/>
+        <c:crossAx val="50748416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,7 +1199,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1225,11 +1266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54115712"/>
-        <c:axId val="67687552"/>
+        <c:axId val="52527104"/>
+        <c:axId val="52528640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54115712"/>
+        <c:axId val="52527104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,12 +1279,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67687552"/>
+        <c:crossAx val="52528640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67687552"/>
+        <c:axId val="52528640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.15000000000000002"/>
@@ -1255,7 +1296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54115712"/>
+        <c:crossAx val="52527104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,7 +1328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1358,11 +1398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68023040"/>
-        <c:axId val="68024576"/>
+        <c:axId val="52536448"/>
+        <c:axId val="52537984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68023040"/>
+        <c:axId val="52536448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,12 +1411,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68024576"/>
+        <c:crossAx val="52537984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68024576"/>
+        <c:axId val="52537984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.15000000000000002"/>
@@ -1388,7 +1428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68023040"/>
+        <c:crossAx val="52536448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9203,11 +9243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69361664"/>
-        <c:axId val="69363200"/>
+        <c:axId val="68751744"/>
+        <c:axId val="68753280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69361664"/>
+        <c:axId val="68751744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69363200"/>
+        <c:crossAx val="68753280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9224,7 +9264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69363200"/>
+        <c:axId val="68753280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9235,13 +9275,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69361664"/>
+        <c:crossAx val="68751744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9506,15 +9547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>318</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>942974</xdr:colOff>
-      <xdr:row>359</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1047749</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9825,7 +9866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10418,9 +10459,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L317"/>
+  <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11181,7 +11224,7 @@
         <v>41105</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11255,7 +11298,7 @@
         <v>41108</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11293,7 +11336,7 @@
         <v>41108</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22359,6 +22402,317 @@
       <c r="K317" s="5">
         <f>SUM(B317:I317)</f>
         <v>1.0216627612345026</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <f>_xlfn.STDEV.S(B2:B313)</f>
+        <v>2.2094337308829488E-2</v>
+      </c>
+      <c r="C318">
+        <f t="shared" ref="C318:I318" si="1">_xlfn.STDEV.S(C2:C313)</f>
+        <v>2.0075194615881795E-2</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="1"/>
+        <v>7.1390548369998971E-3</v>
+      </c>
+      <c r="E318">
+        <f t="shared" si="1"/>
+        <v>9.1467676520006046E-3</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="1"/>
+        <v>1.3761321499482016E-2</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="1"/>
+        <v>2.0526383487499252E-2</v>
+      </c>
+      <c r="H318">
+        <f t="shared" si="1"/>
+        <v>6.6372890599965921E-3</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="1"/>
+        <v>9.9104693383508177E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>73</v>
+      </c>
+      <c r="B320" s="11">
+        <f>(B$317+($J320*B$318))/(1-$I320)</f>
+        <v>0.32808494212084749</v>
+      </c>
+      <c r="C320" s="11">
+        <f t="shared" ref="C320:H320" si="2">(C$317+($J320*C$318))/(1-$I320)</f>
+        <v>0.20981986506998127</v>
+      </c>
+      <c r="D320" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4583396119510943E-2</v>
+      </c>
+      <c r="E320" s="11">
+        <f t="shared" si="2"/>
+        <v>4.5021153731312664E-2</v>
+      </c>
+      <c r="F320" s="11">
+        <f t="shared" si="2"/>
+        <v>9.4431508724612132E-2</v>
+      </c>
+      <c r="G320" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.9253635967263694E-2</v>
+      </c>
+      <c r="H320" s="11">
+        <f t="shared" si="2"/>
+        <v>7.4193182586583407E-3</v>
+      </c>
+      <c r="I320" s="11">
+        <f t="shared" ref="C320:I320" si="3">I$317+($J320*I$318)</f>
+        <v>1.1887181728537283E-2</v>
+      </c>
+      <c r="J320" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>74</v>
+      </c>
+      <c r="B321" s="11">
+        <f t="shared" ref="B321:I325" si="4">(B$317+($J321*B$318))/(1-$I321)</f>
+        <v>0.38043653899409652</v>
+      </c>
+      <c r="C321" s="11">
+        <f t="shared" si="4"/>
+        <v>0.25558005044818899</v>
+      </c>
+      <c r="D321" s="11">
+        <f t="shared" si="4"/>
+        <v>3.9832285397740898E-2</v>
+      </c>
+      <c r="E321" s="11">
+        <f t="shared" si="4"/>
+        <v>6.4835320549786218E-2</v>
+      </c>
+      <c r="F321" s="11">
+        <f t="shared" si="4"/>
+        <v>0.1247884339059374</v>
+      </c>
+      <c r="G321" s="11">
+        <f t="shared" si="4"/>
+        <v>2.2749341331491587E-2</v>
+      </c>
+      <c r="H321" s="11">
+        <f t="shared" si="4"/>
+        <v>2.1280465145316174E-2</v>
+      </c>
+      <c r="I321" s="5">
+        <f t="shared" ref="C321:I325" si="5">I$317+($J321*I$318)</f>
+        <v>3.1708120405238918E-2</v>
+      </c>
+      <c r="J321" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B322" s="12">
+        <f t="shared" si="4"/>
+        <v>0.38043653899409652</v>
+      </c>
+      <c r="C322" s="12">
+        <f t="shared" si="4"/>
+        <v>0.25558005044818899</v>
+      </c>
+      <c r="D322" s="12">
+        <f t="shared" si="4"/>
+        <v>3.9832285397740898E-2</v>
+      </c>
+      <c r="E322" s="12">
+        <f t="shared" si="4"/>
+        <v>6.4835320549786218E-2</v>
+      </c>
+      <c r="F322" s="12">
+        <f t="shared" si="4"/>
+        <v>0.1247884339059374</v>
+      </c>
+      <c r="G322" s="12">
+        <f t="shared" si="4"/>
+        <v>2.2749341331491587E-2</v>
+      </c>
+      <c r="H322" s="12">
+        <f t="shared" si="4"/>
+        <v>2.1280465145316174E-2</v>
+      </c>
+      <c r="I322" s="12">
+        <f t="shared" si="5"/>
+        <v>3.1708120405238918E-2</v>
+      </c>
+      <c r="J322" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B323" s="12">
+        <f t="shared" si="4"/>
+        <v>0.43497620035406076</v>
+      </c>
+      <c r="C323" s="12">
+        <f t="shared" si="4"/>
+        <v>0.30325280855601155</v>
+      </c>
+      <c r="D323" s="12">
+        <f t="shared" si="4"/>
+        <v>5.571851059472669E-2</v>
+      </c>
+      <c r="E323" s="12">
+        <f t="shared" si="4"/>
+        <v>8.547763163393178E-2</v>
+      </c>
+      <c r="F323" s="12">
+        <f t="shared" si="4"/>
+        <v>0.15641414387860242</v>
+      </c>
+      <c r="G323" s="12">
+        <f t="shared" si="4"/>
+        <v>6.6507856731333401E-2</v>
+      </c>
+      <c r="H323" s="12">
+        <f t="shared" si="4"/>
+        <v>3.5720946475606551E-2</v>
+      </c>
+      <c r="I323" s="12">
+        <f t="shared" si="5"/>
+        <v>5.1529059081940554E-2</v>
+      </c>
+      <c r="J323" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>77</v>
+      </c>
+      <c r="B324" s="10">
+        <f t="shared" si="4"/>
+        <v>0.46310987570574869</v>
+      </c>
+      <c r="C324" s="10">
+        <f t="shared" si="4"/>
+        <v>0.32784426853727144</v>
+      </c>
+      <c r="D324" s="10">
+        <f t="shared" si="4"/>
+        <v>6.3913242485451008E-2</v>
+      </c>
+      <c r="E324" s="10">
+        <f t="shared" si="4"/>
+        <v>9.6125737325622185E-2</v>
+      </c>
+      <c r="F324" s="10">
+        <f t="shared" si="4"/>
+        <v>0.17272791325214559</v>
+      </c>
+      <c r="G324" s="10">
+        <f t="shared" si="4"/>
+        <v>8.9080198316033671E-2</v>
+      </c>
+      <c r="H324" s="10">
+        <f t="shared" si="4"/>
+        <v>4.3169907535103094E-2</v>
+      </c>
+      <c r="I324" s="10">
+        <f t="shared" si="5"/>
+        <v>6.1439528420291371E-2</v>
+      </c>
+      <c r="J324" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>78</v>
+      </c>
+      <c r="B325" s="10">
+        <f t="shared" si="4"/>
+        <v>0.4918440311657124</v>
+      </c>
+      <c r="C325" s="10">
+        <f t="shared" si="4"/>
+        <v>0.35296060421883052</v>
+      </c>
+      <c r="D325" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2282881260239351E-2</v>
+      </c>
+      <c r="E325" s="10">
+        <f t="shared" si="4"/>
+        <v>0.10700111427066815</v>
+      </c>
+      <c r="F325" s="10">
+        <f t="shared" si="4"/>
+        <v>0.18938988078598426</v>
+      </c>
+      <c r="G325" s="10">
+        <f t="shared" si="4"/>
+        <v>0.11213431990101398</v>
+      </c>
+      <c r="H325" s="10">
+        <f t="shared" si="4"/>
+        <v>5.0777857880131394E-2</v>
+      </c>
+      <c r="I325" s="10">
+        <f t="shared" si="5"/>
+        <v>7.1349997758642189E-2</v>
+      </c>
+      <c r="J325" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B327" s="12">
+        <f>B317/(1-$I317)</f>
+        <v>0.40742437670351001</v>
+      </c>
+      <c r="C327" s="12">
+        <f t="shared" ref="C327:H327" si="6">C317/(1-$I317)</f>
+        <v>0.27916994130729283</v>
+      </c>
+      <c r="D327" s="12">
+        <f t="shared" si="6"/>
+        <v>4.7693259535474868E-2</v>
+      </c>
+      <c r="E327" s="12">
+        <f t="shared" si="6"/>
+        <v>7.5049746668227238E-2</v>
+      </c>
+      <c r="F327" s="12">
+        <f t="shared" si="6"/>
+        <v>0.1404377706804007</v>
+      </c>
+      <c r="G327" s="12">
+        <f t="shared" si="6"/>
+        <v>4.4402349116440823E-2</v>
+      </c>
+      <c r="H327" s="12">
+        <f t="shared" si="6"/>
+        <v>2.842604245309481E-2</v>
+      </c>
+      <c r="I327" s="14">
+        <f>I317</f>
+        <v>4.1618589743589736E-2</v>
       </c>
     </row>
   </sheetData>
